--- a/report/size.xlsx
+++ b/report/size.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angie/Documents/MIEIC/4A1S/AIAD/practice/project/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="12520" windowWidth="26180" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="size" sheetId="6" r:id="rId1"/>
@@ -243,11 +243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1775096912"/>
-        <c:axId val="1692194656"/>
+        <c:axId val="-1612374784"/>
+        <c:axId val="-1612370416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1775096912"/>
+        <c:axId val="-1612374784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1692194656"/>
+        <c:crossAx val="-1612370416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1692194656"/>
+        <c:axId val="-1612370416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1775096912"/>
+        <c:crossAx val="-1612374784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/report/size.xlsx
+++ b/report/size.xlsx
@@ -243,11 +243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1612374784"/>
-        <c:axId val="-1612370416"/>
+        <c:axId val="2015258208"/>
+        <c:axId val="2015259984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1612374784"/>
+        <c:axId val="2015258208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -260,7 +260,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -273,7 +273,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>size</a:t>
                 </a:r>
               </a:p>
@@ -293,7 +293,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -331,7 +331,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -346,7 +346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1612370416"/>
+        <c:crossAx val="2015259984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,9 +354,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1612370416"/>
+        <c:axId val="2015259984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -381,7 +382,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -394,7 +395,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>tixks</a:t>
                 </a:r>
               </a:p>
@@ -414,7 +415,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -445,7 +446,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -460,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1612374784"/>
+        <c:crossAx val="2015258208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,16 +1070,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1095,6 +1096,44 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731500" y="5689600"/>
+          <a:ext cx="6616700" cy="4470400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1365,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
